--- a/v3_201908/belege/einbildungskraft/Annotation_Einbildungskraft_others_20191019.xlsx
+++ b/v3_201908/belege/einbildungskraft/Annotation_Einbildungskraft_others_20191019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/td/Github/alz/v3_201908/belege/einbildungskraft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A14707-4108-874E-BD78-36C5256524FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8DD4F8-0177-B043-B4AB-2C6D670932D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{C3BF4201-C063-D94D-BDF6-B84AB4E18556}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C3BF4201-C063-D94D-BDF6-B84AB4E18556}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1023">
   <si>
     <t>gb_ogs4AAAAMAAJ</t>
   </si>
@@ -1432,6 +1432,1674 @@
   </si>
   <si>
     <t>ERDBESCHREIBUNG</t>
+  </si>
+  <si>
+    <t>LITERARISCHE ANZEIGEN</t>
+  </si>
+  <si>
+    <t>PASTORALWISSENSCHAFTEN</t>
+  </si>
+  <si>
+    <t>GEDICHTE</t>
+  </si>
+  <si>
+    <t>LYRISCHE POESIE</t>
+  </si>
+  <si>
+    <t>POETIK</t>
+  </si>
+  <si>
+    <t>RÖMISCHE LITERATUR</t>
+  </si>
+  <si>
+    <t>KIRCHENGESCHICHTE</t>
+  </si>
+  <si>
+    <t>Biblische Medicin</t>
+  </si>
+  <si>
+    <t>THEORIE</t>
+  </si>
+  <si>
+    <t>ERBAUUNGSSCHRIFTEN</t>
+  </si>
+  <si>
+    <t>REVISION DER DEUTSCHEN JOURNALE</t>
+  </si>
+  <si>
+    <t>REVISION DER THEOLOGISCHEN JOURNALE</t>
+  </si>
+  <si>
+    <t>REVISION DER ÄSTHETISCHEN JOURNALE</t>
+  </si>
+  <si>
+    <t>REVISION DER PHILOLOGISCHEN JOURNALE</t>
+  </si>
+  <si>
+    <t>PHYSIK</t>
+  </si>
+  <si>
+    <t>DRAMATURGIE</t>
+  </si>
+  <si>
+    <t>STATISTIK</t>
+  </si>
+  <si>
+    <t>GRIECHISCHE LITERATUR</t>
+  </si>
+  <si>
+    <t>STAATSWISSENSCHAFTEN</t>
+  </si>
+  <si>
+    <t>Uebersicht der seit 1830 erschienenen encyklopädischen und literarhistorischen Werke</t>
+  </si>
+  <si>
+    <t>KULTURGESCHICHTE</t>
+  </si>
+  <si>
+    <t>CHEMIE</t>
+  </si>
+  <si>
+    <t>Herder und sein Denkmal</t>
+  </si>
+  <si>
+    <t>Aesthetik</t>
+  </si>
+  <si>
+    <t>gb_Di04AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Ideen, welche ihre Einbildungskraft erfüllen, sinn</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=Di04AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Einbildungskraft; er betrachtet mit Erstaunen, ja</t>
+  </si>
+  <si>
+    <t>seine feurige Einbildungskraft, muſsten sich bald</t>
+  </si>
+  <si>
+    <t>Ding erklärt. – Die Einbildungskraft ist der Name</t>
+  </si>
+  <si>
+    <t>gb_VZUKAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>ven Einbildungskraft und der mathematiſchen Con</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=VZUKAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>wurzeln; der Einbildungskraft, ſo fern ſie das ur</t>
+  </si>
+  <si>
+    <t>der charakteriſirenden Einbildungskraft gehandelt.–</t>
+  </si>
+  <si>
+    <t>die Einbildungskraft ſeyn ſoll. Denn vielleicht iſt</t>
+  </si>
+  <si>
+    <t>dung zwiſchen dem Gedächtniſs, der Einbildungskraft</t>
+  </si>
+  <si>
+    <t>hen, und Gebilde ihrer Einbildungskraft an die Stelle</t>
+  </si>
+  <si>
+    <t>„In welcher Beziehung ſtehen Einbildungskraft und Gefühl?</t>
+  </si>
+  <si>
+    <t>ſetzungen mit Kraft: imagination, Einbildungskraft,</t>
+  </si>
+  <si>
+    <t>ſeine Einbildungskraft zu zügeln und jeden Affect zu</t>
+  </si>
+  <si>
+    <t>Einbildungskraft hieraus die höhern Gefühle hervor</t>
+  </si>
+  <si>
+    <t>Aufſchwüngen der Einbildungskraft, aber nicht zum</t>
+  </si>
+  <si>
+    <t>dem Ewigen, die Einbildungskraft vorzüglich aufre</t>
+  </si>
+  <si>
+    <t>„That nichts weiter gehört, als eine Einbildungskraft,</t>
+  </si>
+  <si>
+    <t>gb_JSI4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>sie gleich, von Seiten der Einbildungskraft, oder we</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=JSI4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>ist ein Werk der Einbildungskraft; wie kann aber die</t>
+  </si>
+  <si>
+    <t>einer lebhaften Einbildungskraft begabt, konnten die</t>
+  </si>
+  <si>
+    <t>gb_7yg4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>ungebührlicher Einfluſs der Einbildungskraft spricht</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=7yg4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>gb_NjQ4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Vf, die Wirksamkeit der Einbildungskraft der Mut</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=NjQ4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>wie wenig die Einbildungskraft der Mütter in Rück</t>
+  </si>
+  <si>
+    <t>gb_yi9RAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>und erfüllten die Einbildungskraft des Kranken, die</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=yi9RAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>Klarheit durch ein Trugbild der Einbildungskraft</t>
+  </si>
+  <si>
+    <t>wäre für die Einbildungskraft lockender, befruch</t>
+  </si>
+  <si>
+    <t>geleiteten Einbildungskraft entspringen" (1744–1750)</t>
+  </si>
+  <si>
+    <t>gb_RzI4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Richtungen der Einbildungskraft, den Bedürfnissen</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=RzI4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>stand, Einbildungskraft, Vernunft u. s. w., sondern</t>
+  </si>
+  <si>
+    <t>gb_ZRs4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>der Einbildungskraft und der Vernunft. An die über</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=ZRs4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>der Einbildungskraft und der Vernunft beschäfj</t>
+  </si>
+  <si>
+    <t>tasie lebendig und geregelt (?), seine Einbildungskraft (?) so reich als harmonisch (?); seineÄ</t>
+  </si>
+  <si>
+    <t>auſserhalb dazu diente, auf die Einbildungskraft zu</t>
+  </si>
+  <si>
+    <t>gb_8Bo4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>tionen lieben. Nachdem sich seine Einbildungskraft</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=8Bo4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>gb_Fy9RAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>Werkzeugen der Einbildungskraft mehr und mehr</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=Fy9RAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>der Einbildungskraft als ein von der Vernunft un</t>
+  </si>
+  <si>
+    <t>Einbildungskraft", sondern nach einem logischen Ge</t>
+  </si>
+  <si>
+    <t>„vermittelst der Einbildungskraft", sondern durch</t>
+  </si>
+  <si>
+    <t>die Einbildungskraft, das Begehrungsvermögen, das</t>
+  </si>
+  <si>
+    <t>fluss der reproductiven Einbildungskraft auf die De</t>
+  </si>
+  <si>
+    <t>ven Einbildungskraft und der Sinneseindrücke auf</t>
+  </si>
+  <si>
+    <t>kung der reproductiven Einbildungskraft, noch von</t>
+  </si>
+  <si>
+    <t>liche Einbildungskraft erkältender und unergiebiger,</t>
+  </si>
+  <si>
+    <t>Element mittelst der ästhetischen Einbildungskraft.</t>
+  </si>
+  <si>
+    <t>Einbildungskraft als Schöpferin des Schönen, ihren</t>
+  </si>
+  <si>
+    <t>Sinne. Die Einbildungskraft ist immer der Sitz des</t>
+  </si>
+  <si>
+    <t>beantwortet: die Einbildungskraft ist Schöpferin auf</t>
+  </si>
+  <si>
+    <t>dar, wie die ästhetische Einbildungskraft das Schö</t>
+  </si>
+  <si>
+    <t>gb_mSE4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>uns gespiegelt in der geschmeidigen Einbildungskraft des rüstigen Mannes in lebhaften und leicht</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=mSE4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>reich, oder die Einbildungskraft und das Gemiith</t>
+  </si>
+  <si>
+    <t>gb_GCo4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Einbildungskraft u. s. w.?, wie entwickeln</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=GCo4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Einbildungskraft täuschen zu wollen. Er schildert</t>
+  </si>
+  <si>
+    <t>keine schöpferische Einbildungskraft; er verirre sich</t>
+  </si>
+  <si>
+    <t>Einbildungskraft an und glaubt, daſs nach dieser</t>
+  </si>
+  <si>
+    <t>Erklärung der Besitz der Einbildungskraft unmög</t>
+  </si>
+  <si>
+    <t>die schöpferische Einbildungskraft; dann aber giebt</t>
+  </si>
+  <si>
+    <t>gb_PRU4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>scheinungen, mit Hilfe ihrer Einbildungskraft mehr</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=PRU4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>der Einbildungskraft treten noch um dieselbe Zeit</t>
+  </si>
+  <si>
+    <t>gb_ldCEAAAAIAAJ</t>
+  </si>
+  <si>
+    <t>nungen, Einbildungskraft und Verstand. Die Ein</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=ldCEAAAAIAAJ</t>
+  </si>
+  <si>
+    <t>ihres Strebens ist dasÄ der Einbildungskraft,</t>
+  </si>
+  <si>
+    <t>fühl und die Einbildungskraft auf die Anschauung</t>
+  </si>
+  <si>
+    <t>stellung, mittelst der Einbildungskraft und des</t>
+  </si>
+  <si>
+    <t>ckelung der Einbildungskraft durch Vernunftideen</t>
+  </si>
+  <si>
+    <t>der Einbildungskraft) seine obersten Regulative</t>
+  </si>
+  <si>
+    <t>Einbildungskraft die widersprechendsten Vorstel</t>
+  </si>
+  <si>
+    <t>gb_6Bs4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>niſs, die Einbildungskraft, die Urtheilskraft, den</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=6Bs4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Einbildungskraft, wahrscheinlich weil sie sich noch</t>
+  </si>
+  <si>
+    <t>Einbildungskraft anschauliche Weise aus einem be</t>
+  </si>
+  <si>
+    <t>unsere Einbildungskraft dabey, setzt alle unsere</t>
+  </si>
+  <si>
+    <t>gb_5Dc4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>der Einbildungskraft des Lesers hinreichenden Spiel</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=5Dc4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t># Einbildungskraft, die auch dann dem Redner zu</t>
+  </si>
+  <si>
+    <t>gb_aiA4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Weltfremd sind, die Einbildungskraft zur Erklärung</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=aiA4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>welche die Vorstellungen unserer Einbildungskraft</t>
+  </si>
+  <si>
+    <t>gb_4yA4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>ciirter Vorstellungen der Einbildungskraft, die dritte</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=4yA4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>association und reproductive Einbildungskraft, Phan</t>
+  </si>
+  <si>
+    <t>gb_fSM4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>für das Schöne, glühenden Einbildungskraft und leb</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=fSM4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>des, der aus Bildern der Einbildungskraft etwas zu</t>
+  </si>
+  <si>
+    <t>gb_Wx04AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>groſse Einbildungskraft übermäſsig erregbar, bey</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=Wx04AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>was nur Idee ist, nur Produkt der Einbildungskraft,</t>
+  </si>
+  <si>
+    <t>reproductive Einbildungskraft ohne Unterschied alle</t>
+  </si>
+  <si>
+    <t>dem Thiere, alsoÄ Einbildungskraft</t>
+  </si>
+  <si>
+    <t>„ Liegt die Verletzung der Einbildungskraft klar vor</t>
+  </si>
+  <si>
+    <t>denschaftlichen Formen, welche die Einbildungskraft des Dichters, sogar in ihren Verirrungen, ihm</t>
+  </si>
+  <si>
+    <t>warten" entsteht, und zwischen Einbildungskraft und</t>
+  </si>
+  <si>
+    <t>Dunkel liegend betrachtet. Von der Einbildungskraft</t>
+  </si>
+  <si>
+    <t>und Vokalen geben u. s. w... Die Einbildungskraft</t>
+  </si>
+  <si>
+    <t>mögen und Einbildungskraft begründet. Hiebey aber</t>
+  </si>
+  <si>
+    <t>allgemeinelitera1847unse</t>
+  </si>
+  <si>
+    <t>gleichsam als ein Monogramm der Einbildungskraft</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/allgemeinelitera1847unse/page/n48</t>
+  </si>
+  <si>
+    <t>Einbildungskraft. Bemerkenswerth ist auch die</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/allgemeinelitera1847unse/page/n240</t>
+  </si>
+  <si>
+    <t>Gefühls, der Einbildungskraft u. s. w. genügen soll,</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/allgemeinelitera1847unse/page/n358</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/allgemeinelitera1847unse/page/n736</t>
+  </si>
+  <si>
+    <t>gb_BM-EAAAAIAAJ</t>
+  </si>
+  <si>
+    <t>von Witz, Humor, Originalität und Einbildungskraft verkennen, welche ſchon die Streckver/é ent</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=BM-EAAAAIAAJ</t>
+  </si>
+  <si>
+    <t>chen Einbildungskraft nur noch mehr die Zügel</t>
+  </si>
+  <si>
+    <t>Deutſchen. Sollte vielleicht die Einbildungskraft der</t>
+  </si>
+  <si>
+    <t>Zorn durch die aufgeregte Einbildungskraft den Be</t>
+  </si>
+  <si>
+    <t>ſche Dichtungen einer ſchwärmenden Einbildungskraft, noch jeſuitiſche Entſtellungen der Thatſachen,</t>
+  </si>
+  <si>
+    <t>gb_ByBRAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>dende und ſchaffende Einbildungskraft, welche die</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=ByBRAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>hafte Einbildungskraft, daſs er das Schöne in der Kunſt</t>
+  </si>
+  <si>
+    <t>dern durch lebhafte Einbildungskraft und ganz eigene</t>
+  </si>
+  <si>
+    <t>bey welchen die Einbildungskraft gern einige Stunden</t>
+  </si>
+  <si>
+    <t>keit, eine lebhafte Einbildungskraft, einen gebilde</t>
+  </si>
+  <si>
+    <t>Sinne wirkt, und wovon folglich die Einbildungskraft allein ſich eine Vorſtellung macht. Unter die</t>
+  </si>
+  <si>
+    <t>Miſsverhältniſs der Einbildungskraft zum Verſtande,</t>
+  </si>
+  <si>
+    <t>ſache nicht in die Beobachtung fällt. Die Einbildungskraft iſt überhaupt das Vermögen des unwillkürlichen</t>
+  </si>
+  <si>
+    <t>tion der Vorſtellungen in der Einbildungskraft. D:</t>
+  </si>
+  <si>
+    <t>Einbildungskraft nirgends los, ſie kann nur Aſſocia</t>
+  </si>
+  <si>
+    <t>derbewuſstſeyn der productiven Einbildungskraft her,</t>
+  </si>
+  <si>
+    <t>digende, frey dichtende Einbildungskraft dieſer wahr</t>
+  </si>
+  <si>
+    <t>Gegen den Schematismus der Einbildungskraft</t>
+  </si>
+  <si>
+    <t>Die Gewalt der Einbildungskraft über Freuden und</t>
+  </si>
+  <si>
+    <t>begriffen. Ehe er die Gewalt der Einbildungskraft</t>
+  </si>
+  <si>
+    <t>Einbildungskraft; ein klarer, durch vielſeitige Kennt--</t>
+  </si>
+  <si>
+    <t>„Wie verhält ſich die Einbildungskraft zum Gefühl? wie</t>
+  </si>
+  <si>
+    <t>gb_NhI4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Organs der Einbildungskraft zuſammen geſetzten Vor</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=NhI4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>zu Objecten der Einbildungskraft macht, oder es</t>
+  </si>
+  <si>
+    <t>ſchaft. Jene einzelnen, von der Einbildungskraft näch</t>
+  </si>
+  <si>
+    <t>nem ſolchen von der Einbildungskraft zu umfaſſenden</t>
+  </si>
+  <si>
+    <t>dieſes letzten, mehr von der Einbildungskraft des</t>
+  </si>
+  <si>
+    <t>keit der Einbildungskraft ab, die nicht viel für den</t>
+  </si>
+  <si>
+    <t>Einbildungskraft, bey einem hellen Verſtande, der</t>
+  </si>
+  <si>
+    <t>erhältniſſe der Sinne und der Einbildungskraft, wo</t>
+  </si>
+  <si>
+    <t>fpannter Einbildungskraft iſt ein guter Verſtand ver</t>
+  </si>
+  <si>
+    <t>reift, als dieÄ ſogenannte Einbildungskraft; zu den Unvollkommenheiten der Sprachwe</t>
+  </si>
+  <si>
+    <t>Vitz, Scharfſinn, Einbildungskraft, lebhaftes Ge</t>
+  </si>
+  <si>
+    <t>gb_rzA4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>ihrer hochpoetischen Einbildungskraft, erfuhr aber</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=rzA4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>gb_9h84AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>kraft, oder die Einbildungskraft leidet; führt man</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=9h84AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>doppeltes, nämlich Sinn und Einbildungskraft. In</t>
+  </si>
+  <si>
+    <t>von einem höheren Vermögen – der Einbildungskraft – in eine Form gebracht werden müsse. Form</t>
+  </si>
+  <si>
+    <t>Die Einbildungskraft wirkt beim sinnlichen An</t>
+  </si>
+  <si>
+    <t>Einbildungskraft gehören die sinnlichen Dichtungen,</t>
+  </si>
+  <si>
+    <t>den Flügeln der Einbildungskraft sich in Regionen</t>
+  </si>
+  <si>
+    <t>sches Gemälde die Einbildungskraft an, und läſst ei</t>
+  </si>
+  <si>
+    <t>gb_jSo4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>– Die Einbildungskraft im höhern Sinn dieses Wor</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=jSo4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>sichÄ entwickele, und die Einbildungskraft</t>
+  </si>
+  <si>
+    <t>Eben so aber sey auch die Einbildungskraft (conce</t>
+  </si>
+  <si>
+    <t>keinen Sinn hat, und wo die Einbildungskraft, von</t>
+  </si>
+  <si>
+    <t>siker und der Einbildungskraft des Verfassers ent</t>
+  </si>
+  <si>
+    <t>gb_GCBRAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>kommt die Einbildungskraft (immaginazione), wel</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=GCBRAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>Einbildungskraft hat. Er versteht darunter alle</t>
+  </si>
+  <si>
+    <t>die Einbildungskraft bestimmen, durch Leitung</t>
+  </si>
+  <si>
+    <t>gb_hS84AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Phantasie und Einbildungskraft besteht, von denen</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=hS84AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>falls überwiegende Einbildungskraft nicht, wie die</t>
+  </si>
+  <si>
+    <t>dere Talente undÄ der Einbildungskraft</t>
+  </si>
+  <si>
+    <t>schaften desselben sind: 1) Wärme der Einbildungskraft, 2) Erfindungsgeist, und 3) die Gabe, Alles</t>
+  </si>
+  <si>
+    <t>Gal's Einbildungskraft müsse man bisweilen Miſs</t>
+  </si>
+  <si>
+    <t>gb_aDI4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>dichtenden Einbildungskraft, denn als ein mühsames</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=aDI4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Verstand und die reiche lebendige Einbildungskraft des Vfs achten und bewundern und ihn</t>
+  </si>
+  <si>
+    <t>allgemeineliter253unkngoog</t>
+  </si>
+  <si>
+    <t>durch die Einbildungskraft vermittelt wird. Denn</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/allgemeineliter253unkngoog/page/n318</t>
+  </si>
+  <si>
+    <t>gb_sogFAAAAQAAJ</t>
+  </si>
+  <si>
+    <t>vielmehr auf die Einbildungskraft, und sorgt für ei</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=sogFAAAAQAAJ</t>
+  </si>
+  <si>
+    <t>ken durchgängig die schaffende Einbildungskraft</t>
+  </si>
+  <si>
+    <t>gb_7R44AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Einbildungskraft zum Verstande.</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=7R44AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>raum, innerhalb dessen die Einbildungskraft sich</t>
+  </si>
+  <si>
+    <t>es auf Einbildungskraft ankommt, so ist Hr. A. E.</t>
+  </si>
+  <si>
+    <t>leicht entzündliche Einbildungskraft und eine frei</t>
+  </si>
+  <si>
+    <t>gb_qsaEAAAAIAAJ</t>
+  </si>
+  <si>
+    <t>che wird noch von der Einbildungskraft behauptet,</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=qsaEAAAAIAAJ</t>
+  </si>
+  <si>
+    <t>gb_2Ss4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>den der Einbildungskraft im Gebiete der Wissen</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=2Ss4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>und der Einbildungskraft gefallen können, gestattet,</t>
+  </si>
+  <si>
+    <t>ten Einbildungskraft das Unendliche offenbart. Nun</t>
+  </si>
+  <si>
+    <t>gb_DR04AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>» Spielen der gefälligen Einbildungskraft seinen bes</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=DR04AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>gb_Mxc4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Thema über den Anbau der Einbildungskraft in der</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=Mxc4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>kungen, in denen jedoch zwischen Einbildungskraft</t>
+  </si>
+  <si>
+    <t>theile der Einbildungskraft, die leicht in Einbildung</t>
+  </si>
+  <si>
+    <t>Hülfe der Einbildungskraft wohl in einzelnen Momen</t>
+  </si>
+  <si>
+    <t>gb_xTQ4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>seine Einbildungskraft ihm früher für wenig besser als</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=xTQ4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Einbildungskraft, sie vergöttern ihre Repräsentanten–</t>
+  </si>
+  <si>
+    <t>deten Geschmacks und einer verfeinerten Einbildungskraft, diese widerstrebenden Bestandtheile zu entwir</t>
+  </si>
+  <si>
+    <t>chen Einbildungskraft oder der Unerfahrenheit indj</t>
+  </si>
+  <si>
+    <t>gb_MHlIAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>Vernunft, wie die Einbildungskraft zum Verstande</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=MHlIAAAAYAAJ</t>
+  </si>
+  <si>
+    <t>gb_Chg4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Uhland hat die höhere Einbildungskraft, Rückert</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=Chg4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>in den ausschweifenden Träumen ihrer Einbildungskraft wahrzunehmen glauben und sich dadurch dem</t>
+  </si>
+  <si>
+    <t>Gewöhnlich sieht man die Einbildungskraft als</t>
+  </si>
+  <si>
+    <t>gb_Pww4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>ches die Einbildungskraft mit dem Subjecte ver</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=Pww4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Spiel der Phantaſie und Einbildungskraft zu halten,</t>
+  </si>
+  <si>
+    <t>liſchen Glauben, der die Einbildungskraft durch ſei</t>
+  </si>
+  <si>
+    <t>er eine unbegränzte Einbildungskraft, undÄ</t>
+  </si>
+  <si>
+    <t>mengeſetzten, von der Einbildungskraft hervorge</t>
+  </si>
+  <si>
+    <t>Einbildungskraft aufgefaſst und feſtgehalten werden</t>
+  </si>
+  <si>
+    <t>zugethan waren: die Einbildungskraft halte, dem</t>
+  </si>
+  <si>
+    <t>nicht durch künſtliche Mittel die Einbildungskraft</t>
+  </si>
+  <si>
+    <t>wirrten Köpfen, die ihre lebhafte Einbildungskraft</t>
+  </si>
+  <si>
+    <t>gb_Izk4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Schöpfungen ihrer Einbildungskraft vortrugen. Daſs</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=Izk4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>jnt dieser Spiele der Einbildungskraft hervorheben</t>
+  </si>
+  <si>
+    <t>merkt, daſs eine sehr lebhafte Einbildungskraft da</t>
+  </si>
+  <si>
+    <t>Eindrucks auf die Einbildungskraft und sey somit</t>
+  </si>
+  <si>
+    <t>gb_3tTjAAAAMAAJ</t>
+  </si>
+  <si>
+    <t>die Einbildungskraft überflogen. Zoophyten können</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=3tTjAAAAMAAJ</t>
+  </si>
+  <si>
+    <t>einer erhitzten Einbildungskraft, der mit Bildern</t>
+  </si>
+  <si>
+    <t>Einbildungskraft und Euer Herz intereſſiren, und</t>
+  </si>
+  <si>
+    <t>Malerey der Einbildungskraft, Ausdruck. Alle ſchöne</t>
+  </si>
+  <si>
+    <t>unfer Intereſſe und unſere Einbildungskraft zu be</t>
+  </si>
+  <si>
+    <t>das dritte die Einbildungskraft. In Hinſicht des</t>
+  </si>
+  <si>
+    <t>zufangen, als bis bey, mir Einbildungskraft und</t>
+  </si>
+  <si>
+    <t>und Vernunft, und dieÄ Einbildungskraft</t>
+  </si>
+  <si>
+    <t>Vernunft und die Friſche deiner Einbildungskraft zu</t>
+  </si>
+  <si>
+    <t>chen Sinne, das durch die Einbildungskraft bewirkte Zu</t>
+  </si>
+  <si>
+    <t>Einbildungskraft, als des Verſandes gemacht wird.</t>
+  </si>
+  <si>
+    <t>Einbildungskraft wohl dazu dienen können, müſsige</t>
+  </si>
+  <si>
+    <t>gb_cCQ4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>stischen Entstellungen der Einbildungskraft hindurch,</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=cCQ4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>nehmung, oder der Einbildungskraft in das Geschäft</t>
+  </si>
+  <si>
+    <t>verwüstlichen Einbildungskraft dieses einzigen Volks</t>
+  </si>
+  <si>
+    <t>Einbildungskraft erklären zu wollen. Nur das Wich</t>
+  </si>
+  <si>
+    <t>gb_ZTQ4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>dung mit vorherrſchender Einbildungskraft; der</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=ZTQ4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>einer lebhaften Einbildungskraft, die ihre Bildungen</t>
+  </si>
+  <si>
+    <t>Einbildungskraft ſo gerne die Darſtellung groſser Be</t>
+  </si>
+  <si>
+    <t>eine Einbildungskraft hervor, die ſich, von Vorur</t>
+  </si>
+  <si>
+    <t>Gemüth und Einbildungskraft, der man ſich nicht ent</t>
+  </si>
+  <si>
+    <t>gb_lxw4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>das Gedächtniſs, für die Einbildungskraft oft trok</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=lxw4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>stellen durch dichtende Einbildungskraft a priori</t>
+  </si>
+  <si>
+    <t>und wilder Einbildungskraft ihrer Thaten sich</t>
+  </si>
+  <si>
+    <t>wenn S. 27 gesagt wird: die Einbildungskraft sey</t>
+  </si>
+  <si>
+    <t>sie dem Einflusse der Sinne, der Einbildungskraft</t>
+  </si>
+  <si>
+    <t>als ein Vehikel der Einbildungskraft. Den Unter</t>
+  </si>
+  <si>
+    <t>(Rec. gesteht, daſs er mit seiner Einbildungskraft da</t>
+  </si>
+  <si>
+    <t>gb_EYkFAAAAQAAJ</t>
+  </si>
+  <si>
+    <t>traits; er weifs, dafs dabey die Einbildungskraft</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=EYkFAAAAQAAJ</t>
+  </si>
+  <si>
+    <t>gb_sBE4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>mit jenem zugleich die Einbildungskraft durch</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=sBE4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>friſche Jugend der Einbildungskraft und des Herzens</t>
+  </si>
+  <si>
+    <t>unſrer Einbildungskraft gleich ſtark ſich Ähigt</t>
+  </si>
+  <si>
+    <t>weiter, und ſeine Einbildungskraft mit chönen Ideen</t>
+  </si>
+  <si>
+    <t>und auf die Einbildungskraft, und giebt endlich</t>
+  </si>
+  <si>
+    <t>mus, ſtets der Sohn einer erhitzten Einbildungskraft,</t>
+  </si>
+  <si>
+    <t>Einbildungskraft und der Empfindung voraus, die nie</t>
+  </si>
+  <si>
+    <t>der Einbildungskraft. Unter der zweyten Art der In</t>
+  </si>
+  <si>
+    <t>eine erſtaunliche Einbildungskraft. Er hat den Wer</t>
+  </si>
+  <si>
+    <t>die die Einbildungskraft ſeiner Zuhörer rührt; wenn</t>
+  </si>
+  <si>
+    <t>nicht klar wird. Die Einbildungskraft iſt dabey ſo</t>
+  </si>
+  <si>
+    <t>gb_7hY4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>sches und Tonisches von der Einbildungskraft gestal</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=7hY4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>gb_-hk4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>für ein müssiges Spiel der Einbildungskraft eines rab</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=-hk4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>gb_bBc4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>ordnung in das Spiel ſeiner Einbildungskraft ziehe.</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=bBc4AAAAMAAJ</t>
+  </si>
+  <si>
+    <t>Einbildungskraft; 8) Warnung vor Schwärmerey;</t>
+  </si>
+  <si>
+    <t>der Einbildungskraft und zum Worte betrachtet</t>
+  </si>
+  <si>
+    <t>und erhabne Einbildungskraft, die aber über die</t>
+  </si>
+  <si>
+    <t>Einbildungskraft, welche nichts Leeres oder Todtes</t>
+  </si>
+  <si>
+    <t>er muſste der Einbildungskraft</t>
+  </si>
+  <si>
+    <t>erborgte poetiſche Flitter die Einbildungskraft be</t>
+  </si>
+  <si>
+    <t>gb_BdCEAAAAIAAJ</t>
+  </si>
+  <si>
+    <t>ſetzen unterworfen, und die Einbildungskraft wird,</t>
+  </si>
+  <si>
+    <t>https://books.google.de/books?id=BdCEAAAAIAAJ</t>
+  </si>
+  <si>
+    <t>tereſſant, und die Einbildungskraft angenehm und er</t>
+  </si>
+  <si>
+    <t>ſättigt, die Einbildungskraft belebt aber nicht be</t>
+  </si>
+  <si>
+    <t>ren?) – einer Fruchtbarkeit der Einbildungskraft, und</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0259</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>0270</t>
+  </si>
+  <si>
+    <t>0277</t>
+  </si>
+  <si>
+    <t>0334</t>
+  </si>
+  <si>
+    <t>0363</t>
+  </si>
+  <si>
+    <t>0488</t>
+  </si>
+  <si>
+    <t>0176</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>0396</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>0272</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>0293</t>
+  </si>
+  <si>
+    <t>0490</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0228</t>
+  </si>
+  <si>
+    <t>0281</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>0376</t>
+  </si>
+  <si>
+    <t>0441</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>0448</t>
+  </si>
+  <si>
+    <t>0453</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0471</t>
+  </si>
+  <si>
+    <t>0669</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>0670</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>0190</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0147</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>0252</t>
+  </si>
+  <si>
+    <t>0333</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>0240</t>
+  </si>
+  <si>
+    <t>0736</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0322</t>
+  </si>
+  <si>
+    <t>0375</t>
+  </si>
+  <si>
+    <t>0663</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>0665</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>0668</t>
+  </si>
+  <si>
+    <t>0689</t>
+  </si>
+  <si>
+    <t>0940</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0985</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0436</t>
+  </si>
+  <si>
+    <t>0437</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0129</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>0160</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>0318</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0247</t>
+  </si>
+  <si>
+    <t>0359</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>0157</t>
+  </si>
+  <si>
+    <t>0163</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>0382</t>
+  </si>
+  <si>
+    <t>0384</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0346</t>
+  </si>
+  <si>
+    <t>0424</t>
+  </si>
+  <si>
+    <t>0460</t>
+  </si>
+  <si>
+    <t>0484</t>
+  </si>
+  <si>
+    <t>0520</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0408</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0271</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>0495</t>
+  </si>
+  <si>
+    <t>0449</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0185</t>
+  </si>
+  <si>
+    <t>0238</t>
+  </si>
+  <si>
+    <t>0239</t>
+  </si>
+  <si>
+    <t>0285</t>
+  </si>
+  <si>
+    <t>0273</t>
+  </si>
+  <si>
+    <t>0385</t>
+  </si>
+  <si>
+    <t>0410</t>
+  </si>
+  <si>
+    <t>0438</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0180</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>0480</t>
+  </si>
+  <si>
+    <t>0482</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>0321</t>
+  </si>
+  <si>
+    <t>0297</t>
+  </si>
+  <si>
+    <t>0447</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0539</t>
+  </si>
+  <si>
+    <t>0579</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>Psychiatrie</t>
+  </si>
+  <si>
+    <t>Diätetik</t>
+  </si>
+  <si>
+    <t>Walachische Mährchen</t>
+  </si>
+  <si>
+    <t>Poesie</t>
+  </si>
+  <si>
+    <t>Französische Sprache</t>
+  </si>
+  <si>
+    <t>Philosophie</t>
+  </si>
+  <si>
+    <t>Medicin</t>
+  </si>
+  <si>
+    <t>Horaz</t>
+  </si>
+  <si>
+    <t>SCHÖNE LITERATUR</t>
+  </si>
+  <si>
+    <t>ANTHROPOLOGIE</t>
+  </si>
+  <si>
+    <t>REISEBESCHREIBUNG</t>
+  </si>
+  <si>
+    <t>ÄSTHETIK</t>
+  </si>
+  <si>
+    <t>GEOLOGIE</t>
+  </si>
+  <si>
+    <t>SPRACHKUNDE</t>
+  </si>
+  <si>
+    <t>Zur Religionsphilosophie</t>
+  </si>
+  <si>
+    <t>Schöne Literatur</t>
+  </si>
+  <si>
+    <t>Sprachwissenschaft</t>
+  </si>
+  <si>
+    <t>LITERATUR- und KULTUR-GESCHICHTE</t>
+  </si>
+  <si>
+    <t>CRIMINALRECHT</t>
+  </si>
+  <si>
+    <t>INTELLIGENZ DES BUCH- UND KUNSTHANDELS</t>
+  </si>
+  <si>
+    <t>BEREDSAMKEIT</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIE</t>
+  </si>
+  <si>
+    <t>AESTHETIK</t>
+  </si>
+  <si>
+    <t>PÄDAGOGISCHE SCHRIFTEN</t>
+  </si>
+  <si>
+    <t>Neuere Sprachen</t>
+  </si>
+  <si>
+    <t>Exegese des alten Testaments</t>
+  </si>
+  <si>
+    <t>Politische Poesie</t>
+  </si>
+  <si>
+    <t>Ernst Moritz Arndt.</t>
+  </si>
+  <si>
+    <t>Uebersicht der Literatur der systematischen Theologie aus den Jahren 1830 bis 1833</t>
+  </si>
+  <si>
+    <t>Kunstgeschichte</t>
+  </si>
+  <si>
+    <t>MYTHOLOGIE</t>
+  </si>
+  <si>
+    <t>NATURWISSENSCHAFTEN</t>
+  </si>
+  <si>
+    <t>STAATSWISSENSCHAFT</t>
+  </si>
+  <si>
+    <t>MATHEMATIK</t>
+  </si>
+  <si>
+    <t>RELIGIONSPHILOSOPHIE</t>
+  </si>
+  <si>
+    <t>RELIGIÖSE ALTERTHÜMER DER GRIECHEN</t>
+  </si>
+  <si>
+    <t>PSYCHOLOGIE</t>
+  </si>
+  <si>
+    <t>LANDWIRTHSCHAFT</t>
+  </si>
+  <si>
+    <t>ROMANE</t>
+  </si>
+  <si>
+    <t>BIBLISCHE LITERATUR</t>
   </si>
 </sst>
 </file>
@@ -1796,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D7D56D-CEFB-9344-9469-D5EA2CFF61D3}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3068,6 +4736,9 @@
       <c r="E63" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="F63" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -3082,11 +4753,14 @@
       <c r="D64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
@@ -3099,11 +4773,14 @@
       <c r="D65" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -3119,8 +4796,11 @@
       <c r="E66" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -3136,8 +4816,11 @@
       <c r="E67" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -3153,8 +4836,11 @@
       <c r="E68" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3170,8 +4856,11 @@
       <c r="E69" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
@@ -3187,8 +4876,11 @@
       <c r="E70" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
@@ -3204,8 +4896,11 @@
       <c r="E71" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
@@ -3221,8 +4916,11 @@
       <c r="E72" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
@@ -3238,8 +4936,11 @@
       <c r="E73" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -3252,11 +4953,14 @@
       <c r="D74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>90</v>
       </c>
@@ -3272,8 +4976,11 @@
       <c r="E75" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>90</v>
       </c>
@@ -3289,8 +4996,11 @@
       <c r="E76" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>90</v>
       </c>
@@ -3306,8 +5016,11 @@
       <c r="E77" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -3323,8 +5036,11 @@
       <c r="E78" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
@@ -3340,8 +5056,11 @@
       <c r="E79" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -3357,8 +5076,11 @@
       <c r="E80" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
@@ -3374,8 +5096,11 @@
       <c r="E81" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>100</v>
       </c>
@@ -3388,11 +5113,14 @@
       <c r="D82" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
@@ -3408,8 +5136,11 @@
       <c r="E83" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>100</v>
       </c>
@@ -3425,8 +5156,11 @@
       <c r="E84" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>100</v>
       </c>
@@ -3442,8 +5176,11 @@
       <c r="E85" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>106</v>
       </c>
@@ -3456,11 +5193,14 @@
       <c r="D86" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>106</v>
       </c>
@@ -3476,8 +5216,11 @@
       <c r="E87" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>106</v>
       </c>
@@ -3490,11 +5233,14 @@
       <c r="D88" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>111</v>
       </c>
@@ -3507,11 +5253,14 @@
       <c r="D89" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
@@ -3527,8 +5276,11 @@
       <c r="E90" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>111</v>
       </c>
@@ -3544,8 +5296,11 @@
       <c r="E91" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>111</v>
       </c>
@@ -3561,8 +5316,11 @@
       <c r="E92" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>111</v>
       </c>
@@ -3578,8 +5336,11 @@
       <c r="E93" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>111</v>
       </c>
@@ -3595,8 +5356,11 @@
       <c r="E94" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>111</v>
       </c>
@@ -3612,8 +5376,11 @@
       <c r="E95" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
@@ -3629,8 +5396,11 @@
       <c r="E96" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>111</v>
       </c>
@@ -3646,8 +5416,11 @@
       <c r="E97" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>111</v>
       </c>
@@ -3663,8 +5436,11 @@
       <c r="E98" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
@@ -3680,8 +5456,11 @@
       <c r="E99" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>111</v>
       </c>
@@ -3697,8 +5476,11 @@
       <c r="E100" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>125</v>
       </c>
@@ -3711,11 +5493,14 @@
       <c r="D101" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>128</v>
       </c>
@@ -3728,11 +5513,14 @@
       <c r="D102" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>128</v>
       </c>
@@ -3748,8 +5536,11 @@
       <c r="E103" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>128</v>
       </c>
@@ -3765,8 +5556,11 @@
       <c r="E104" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>128</v>
       </c>
@@ -3782,8 +5576,11 @@
       <c r="E105" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>128</v>
       </c>
@@ -3799,8 +5596,11 @@
       <c r="E106" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>128</v>
       </c>
@@ -3816,8 +5616,11 @@
       <c r="E107" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>128</v>
       </c>
@@ -3833,8 +5636,11 @@
       <c r="E108" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>137</v>
       </c>
@@ -3847,11 +5653,14 @@
       <c r="D109" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>137</v>
       </c>
@@ -3867,8 +5676,11 @@
       <c r="E110" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>137</v>
       </c>
@@ -3884,8 +5696,11 @@
       <c r="E111" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>137</v>
       </c>
@@ -3901,8 +5716,11 @@
       <c r="E112" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>137</v>
       </c>
@@ -3918,8 +5736,11 @@
       <c r="E113" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>137</v>
       </c>
@@ -3935,8 +5756,11 @@
       <c r="E114" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>145</v>
       </c>
@@ -3949,11 +5773,14 @@
       <c r="D115" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>148</v>
       </c>
@@ -3966,11 +5793,14 @@
       <c r="D116" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>148</v>
       </c>
@@ -3986,8 +5816,11 @@
       <c r="E117" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>148</v>
       </c>
@@ -4003,8 +5836,11 @@
       <c r="E118" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>148</v>
       </c>
@@ -4020,8 +5856,11 @@
       <c r="E119" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>148</v>
       </c>
@@ -4037,8 +5876,11 @@
       <c r="E120" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>148</v>
       </c>
@@ -4054,8 +5896,11 @@
       <c r="E121" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>156</v>
       </c>
@@ -4068,11 +5913,14 @@
       <c r="D122" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E122" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>156</v>
       </c>
@@ -4088,8 +5936,11 @@
       <c r="E123" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>156</v>
       </c>
@@ -4105,8 +5956,11 @@
       <c r="E124" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>156</v>
       </c>
@@ -4122,8 +5976,11 @@
       <c r="E125" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>156</v>
       </c>
@@ -4139,8 +5996,11 @@
       <c r="E126" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>156</v>
       </c>
@@ -4156,8 +6016,11 @@
       <c r="E127" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>156</v>
       </c>
@@ -4173,8 +6036,11 @@
       <c r="E128" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>165</v>
       </c>
@@ -4187,11 +6053,14 @@
       <c r="D129" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>165</v>
       </c>
@@ -4207,8 +6076,11 @@
       <c r="E130" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>165</v>
       </c>
@@ -4224,8 +6096,11 @@
       <c r="E131" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>165</v>
       </c>
@@ -4241,8 +6116,11 @@
       <c r="E132" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>165</v>
       </c>
@@ -4258,8 +6136,11 @@
       <c r="E133" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>165</v>
       </c>
@@ -4275,8 +6156,11 @@
       <c r="E134" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>165</v>
       </c>
@@ -4292,8 +6176,11 @@
       <c r="E135" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>174</v>
       </c>
@@ -4306,11 +6193,14 @@
       <c r="D136" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="E136" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>174</v>
       </c>
@@ -4326,8 +6216,11 @@
       <c r="E137" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>174</v>
       </c>
@@ -4343,8 +6236,11 @@
       <c r="E138" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>174</v>
       </c>
@@ -4360,8 +6256,11 @@
       <c r="E139" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>174</v>
       </c>
@@ -4377,8 +6276,11 @@
       <c r="E140" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>174</v>
       </c>
@@ -4394,8 +6296,11 @@
       <c r="E141" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>174</v>
       </c>
@@ -4411,8 +6316,11 @@
       <c r="E142" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>174</v>
       </c>
@@ -4428,8 +6336,11 @@
       <c r="E143" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>174</v>
       </c>
@@ -4445,8 +6356,11 @@
       <c r="E144" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>174</v>
       </c>
@@ -4462,8 +6376,11 @@
       <c r="E145" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>174</v>
       </c>
@@ -4479,8 +6396,11 @@
       <c r="E146" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>174</v>
       </c>
@@ -4496,8 +6416,11 @@
       <c r="E147" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>174</v>
       </c>
@@ -4513,8 +6436,11 @@
       <c r="E148" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>174</v>
       </c>
@@ -4530,8 +6456,11 @@
       <c r="E149" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>174</v>
       </c>
@@ -4547,8 +6476,11 @@
       <c r="E150" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>174</v>
       </c>
@@ -4564,8 +6496,11 @@
       <c r="E151" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>174</v>
       </c>
@@ -4581,8 +6516,11 @@
       <c r="E152" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>174</v>
       </c>
@@ -4598,8 +6536,11 @@
       <c r="E153" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>174</v>
       </c>
@@ -4615,8 +6556,11 @@
       <c r="E154" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>174</v>
       </c>
@@ -4632,8 +6576,11 @@
       <c r="E155" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>196</v>
       </c>
@@ -4649,8 +6596,11 @@
       <c r="E156" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>196</v>
       </c>
@@ -4666,8 +6616,11 @@
       <c r="E157" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>196</v>
       </c>
@@ -4683,8 +6636,11 @@
       <c r="E158" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>196</v>
       </c>
@@ -4700,8 +6656,11 @@
       <c r="E159" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>196</v>
       </c>
@@ -4717,8 +6676,11 @@
       <c r="E160" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>203</v>
       </c>
@@ -4734,8 +6696,11 @@
       <c r="E161" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>203</v>
       </c>
@@ -4751,8 +6716,11 @@
       <c r="E162" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>203</v>
       </c>
@@ -4768,8 +6736,11 @@
       <c r="E163" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>203</v>
       </c>
@@ -4785,8 +6756,11 @@
       <c r="E164" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>203</v>
       </c>
@@ -4802,8 +6776,11 @@
       <c r="E165" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>203</v>
       </c>
@@ -4819,8 +6796,11 @@
       <c r="E166" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>203</v>
       </c>
@@ -4836,8 +6816,11 @@
       <c r="E167" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>212</v>
       </c>
@@ -4853,8 +6836,11 @@
       <c r="E168" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>212</v>
       </c>
@@ -4870,8 +6856,11 @@
       <c r="E169" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>212</v>
       </c>
@@ -4887,8 +6876,11 @@
       <c r="E170" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>212</v>
       </c>
@@ -4904,8 +6896,11 @@
       <c r="E171" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>212</v>
       </c>
@@ -4920,6 +6915,4749 @@
       </c>
       <c r="E172" s="1" t="s">
         <v>214</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4935,6 +11673,75 @@
     <hyperlink ref="E40" r:id="rId9" xr:uid="{6E7894F3-C7CB-7E4B-959C-EEA1879D52E3}"/>
     <hyperlink ref="E43" r:id="rId10" xr:uid="{F407C7A8-FE3F-5547-9B4E-4FAA6D5A1BD4}"/>
     <hyperlink ref="E63" r:id="rId11" xr:uid="{D5AD4B2A-2709-E541-A78B-90B6EEDF40E4}"/>
+    <hyperlink ref="E64" r:id="rId12" xr:uid="{AA6CCC95-92D3-5A47-A3CA-61803193F9D9}"/>
+    <hyperlink ref="E65" r:id="rId13" xr:uid="{09F7BD03-E5E3-2B49-9125-C950BB3234BE}"/>
+    <hyperlink ref="E74" r:id="rId14" xr:uid="{E84EB361-D2F8-8B4E-8ACB-E92376279864}"/>
+    <hyperlink ref="E82" r:id="rId15" xr:uid="{299DF3D1-480D-094A-939F-2739ACB5509C}"/>
+    <hyperlink ref="E86" r:id="rId16" xr:uid="{182D1393-E90A-AD43-A557-2750B6D6E81A}"/>
+    <hyperlink ref="E88" r:id="rId17" xr:uid="{DE0A8436-F206-2045-B2AD-4B2966FC04A1}"/>
+    <hyperlink ref="E89" r:id="rId18" xr:uid="{C0CF78D7-D75B-FD4A-BD7B-22D468D1F2C7}"/>
+    <hyperlink ref="E101" r:id="rId19" xr:uid="{70F83B8B-2F29-634A-9300-0F8CD81FE377}"/>
+    <hyperlink ref="E102" r:id="rId20" xr:uid="{BC064BB1-EC4F-814E-A208-046C4E011696}"/>
+    <hyperlink ref="E109" r:id="rId21" xr:uid="{CD3279A2-92A9-4148-866C-E157652C6332}"/>
+    <hyperlink ref="E115" r:id="rId22" xr:uid="{5D52F5FE-7387-BA42-A91B-B1F9FEAFAFCC}"/>
+    <hyperlink ref="E116" r:id="rId23" xr:uid="{288B7DB2-80BE-B641-8CD8-D999FAC30600}"/>
+    <hyperlink ref="E122" r:id="rId24" xr:uid="{9C0C8029-C1F6-6049-A8C7-C58BCD282225}"/>
+    <hyperlink ref="E129" r:id="rId25" xr:uid="{06DB805F-6239-BB4D-BDC6-66AB8A8DA161}"/>
+    <hyperlink ref="E136" r:id="rId26" xr:uid="{177BD921-F504-DF46-9433-5B07A5B8AFF8}"/>
+    <hyperlink ref="E173" r:id="rId27" xr:uid="{5A36D15E-046A-0B44-9AD1-B92E25E066C3}"/>
+    <hyperlink ref="E177" r:id="rId28" xr:uid="{31FA4C7C-AD1D-6C4E-866F-3C4BECFD7CA9}"/>
+    <hyperlink ref="E190" r:id="rId29" xr:uid="{0288D9B4-01DA-0647-9360-A02DC689399E}"/>
+    <hyperlink ref="E193" r:id="rId30" xr:uid="{90EC0A88-DB42-1E45-9C8A-62EEF693CAAE}"/>
+    <hyperlink ref="E196" r:id="rId31" xr:uid="{DF196106-1F8C-EC46-803D-AE7AAC52A8D3}"/>
+    <hyperlink ref="E200" r:id="rId32" xr:uid="{B477CB5A-C94E-1E4C-BE10-10E9FB21BF6A}"/>
+    <hyperlink ref="E202" r:id="rId33" xr:uid="{A13F939F-4B32-E644-AC30-F8A8AFA7AB14}"/>
+    <hyperlink ref="E206" r:id="rId34" xr:uid="{0DA4FC67-1BB7-AB42-8078-54FB5165D913}"/>
+    <hyperlink ref="E207" r:id="rId35" xr:uid="{DF9819B2-9E69-7248-A949-6DAAD66557DE}"/>
+    <hyperlink ref="E221" r:id="rId36" xr:uid="{D7EADE00-68E9-304B-BE37-112D73C683F0}"/>
+    <hyperlink ref="E223" r:id="rId37" xr:uid="{ECF52B41-10DD-1B4F-9F23-3A47565E44F6}"/>
+    <hyperlink ref="E229" r:id="rId38" xr:uid="{37CDAC12-57B2-ED47-8153-C551E3E1BF5C}"/>
+    <hyperlink ref="E231" r:id="rId39" xr:uid="{35AF5C06-694F-FD42-BF70-C85F62A371F2}"/>
+    <hyperlink ref="E238" r:id="rId40" xr:uid="{23C98F54-D217-3B43-BA2E-8357A4252DC9}"/>
+    <hyperlink ref="E242" r:id="rId41" xr:uid="{22707D17-7128-9244-A092-89A4DDD42639}"/>
+    <hyperlink ref="E244" r:id="rId42" xr:uid="{FE215A65-C84B-CB41-BE5C-26494AE1F041}"/>
+    <hyperlink ref="E246" r:id="rId43" xr:uid="{A41FA959-B7EF-FD41-9CB7-2A7619ED78DA}"/>
+    <hyperlink ref="E248" r:id="rId44" xr:uid="{ADFB9D6C-FAD5-BB4A-AE96-436832940347}"/>
+    <hyperlink ref="E250" r:id="rId45" xr:uid="{66616D23-5666-C944-8749-3B813B1AF1A4}"/>
+    <hyperlink ref="E260" r:id="rId46" xr:uid="{4ECD8214-5655-6244-A701-4EAA17AE5339}"/>
+    <hyperlink ref="E261" r:id="rId47" xr:uid="{8721E67B-1428-C847-A10B-7B02F6DAEC07}"/>
+    <hyperlink ref="E262" r:id="rId48" xr:uid="{868C3455-016D-A048-9848-8FF794A57A8F}"/>
+    <hyperlink ref="E263" r:id="rId49" xr:uid="{EC5AA3D7-BCD9-5640-9DF5-DA0770685D8E}"/>
+    <hyperlink ref="E264" r:id="rId50" xr:uid="{A7E6E234-1C75-944C-8A78-CFCE7938419D}"/>
+    <hyperlink ref="E269" r:id="rId51" xr:uid="{9EC2CBA1-6860-6F41-9418-0ABAD937328E}"/>
+    <hyperlink ref="E286" r:id="rId52" xr:uid="{C9D1D979-1791-B04A-8007-852361C139A6}"/>
+    <hyperlink ref="E297" r:id="rId53" xr:uid="{B0749D93-B01B-4742-9E5F-4566FFDE897C}"/>
+    <hyperlink ref="E298" r:id="rId54" xr:uid="{E758BA36-A7F1-9F4E-AFF2-C53591706EF2}"/>
+    <hyperlink ref="E305" r:id="rId55" xr:uid="{E2D5CD9D-96DC-2E4B-BE00-D688F2AD4B6B}"/>
+    <hyperlink ref="E310" r:id="rId56" xr:uid="{7B80D6CD-B78E-474E-B5CB-DE03C3E60294}"/>
+    <hyperlink ref="E313" r:id="rId57" xr:uid="{830CE94D-5FA3-F44D-8902-FD4DE4FA3ABA}"/>
+    <hyperlink ref="E318" r:id="rId58" xr:uid="{6DCE7D9E-3549-2846-9221-7CB0CC71F0F8}"/>
+    <hyperlink ref="E320" r:id="rId59" xr:uid="{CF7E34CA-B892-7B45-BE25-08530A886AB8}"/>
+    <hyperlink ref="E321" r:id="rId60" xr:uid="{B5ACB5BA-0A6F-7644-9993-15E424FBCD95}"/>
+    <hyperlink ref="E323" r:id="rId61" xr:uid="{CC55399E-2468-664E-9C7A-897FC946B95D}"/>
+    <hyperlink ref="E327" r:id="rId62" xr:uid="{7757DAA2-DD90-2742-8685-F3F606F1A46F}"/>
+    <hyperlink ref="E328" r:id="rId63" xr:uid="{CFE25948-AD81-8947-8D64-7EECA8DD0A28}"/>
+    <hyperlink ref="E331" r:id="rId64" xr:uid="{3F73492C-00B2-0048-BBA1-BF4CC7D7428A}"/>
+    <hyperlink ref="E332" r:id="rId65" xr:uid="{01B3A4A2-C9E0-CB4E-8C85-B2BE29DDFCBB}"/>
+    <hyperlink ref="E336" r:id="rId66" xr:uid="{E6433812-C731-F24F-97C6-80D670222D59}"/>
+    <hyperlink ref="E340" r:id="rId67" xr:uid="{081949F8-06DB-3141-8AFF-385435AF5E2E}"/>
+    <hyperlink ref="E341" r:id="rId68" xr:uid="{05DC3CBC-112C-FD48-948D-7A9134162471}"/>
+    <hyperlink ref="E344" r:id="rId69" xr:uid="{951CD901-C2F8-B74D-95B2-57A8EB705903}"/>
+    <hyperlink ref="E353" r:id="rId70" xr:uid="{D7440A28-4214-8D40-9917-CCE685BDF30F}"/>
+    <hyperlink ref="E357" r:id="rId71" xr:uid="{91B1CF78-CFE3-3747-A8B4-51A5EF3044F5}"/>
+    <hyperlink ref="E369" r:id="rId72" xr:uid="{3EB59370-AB9D-D042-B672-3D884619FCB8}"/>
+    <hyperlink ref="E373" r:id="rId73" xr:uid="{D2923F7A-2AAB-3B47-8D82-C42F9F40D77A}"/>
+    <hyperlink ref="E378" r:id="rId74" xr:uid="{2F2D55AE-67F5-2D40-9B05-EE697C240020}"/>
+    <hyperlink ref="E385" r:id="rId75" xr:uid="{15903D0F-97AB-4446-8053-83C1BFFD6A15}"/>
+    <hyperlink ref="E386" r:id="rId76" xr:uid="{A2571476-D313-D34B-B127-A24E066322E4}"/>
+    <hyperlink ref="E397" r:id="rId77" xr:uid="{6C5B84F6-3D71-B14F-84A2-16C95320B0A5}"/>
+    <hyperlink ref="E398" r:id="rId78" xr:uid="{64F20FE9-B9A3-9347-ABAC-6B0829A4A950}"/>
+    <hyperlink ref="E399" r:id="rId79" xr:uid="{5A5A322B-10F9-1F4D-AFD5-755D19623852}"/>
+    <hyperlink ref="E406" r:id="rId80" xr:uid="{B98CF04A-CFEF-4F44-A2B7-D59590121AB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/v3_201908/belege/einbildungskraft/Annotation_Einbildungskraft_others_20191019.xlsx
+++ b/v3_201908/belege/einbildungskraft/Annotation_Einbildungskraft_others_20191019.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/td/Github/alz/v3_201908/belege/einbildungskraft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8DD4F8-0177-B043-B4AB-2C6D670932D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B3905-E311-A549-B459-004F6193F7DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C3BF4201-C063-D94D-BDF6-B84AB4E18556}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{C3BF4201-C063-D94D-BDF6-B84AB4E18556}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4908" uniqueCount="1024">
   <si>
     <t>gb_ogs4AAAAMAAJ</t>
   </si>
@@ -3100,6 +3101,9 @@
   </si>
   <si>
     <t>BIBLISCHE LITERATUR</t>
+  </si>
+  <si>
+    <t>KWIC</t>
   </si>
 </sst>
 </file>
@@ -3466,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D7D56D-CEFB-9344-9469-D5EA2CFF61D3}">
   <dimension ref="A1:F409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D381" sqref="D381"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3491,7 +3495,7 @@
         <v>443</v>
       </c>
       <c r="D1" t="s">
-        <v>445</v>
+        <v>1023</v>
       </c>
       <c r="E1" t="s">
         <v>444</v>
@@ -11745,4 +11749,8287 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F265960C-C641-B143-A520-F84D42331101}">
+  <dimension ref="A1:F409"/>
+  <sheetViews>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection sqref="A1:F409"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F409">
+    <sortCondition ref="F2:F409"/>
+    <sortCondition ref="A2:A409"/>
+    <sortCondition ref="B2:B409"/>
+    <sortCondition ref="C2:C409"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="E256" r:id="rId1" xr:uid="{276CDA99-BE55-B041-B101-BB3D5A9FF8DC}"/>
+    <hyperlink ref="E287" r:id="rId2" xr:uid="{891B0ABA-EF12-254F-AFD9-1DF8E8B14688}"/>
+    <hyperlink ref="E288" r:id="rId3" xr:uid="{D43D845A-E97E-9449-A3B2-5627D6B19F96}"/>
+    <hyperlink ref="E354" r:id="rId4" xr:uid="{8AFF9480-3D2C-0F46-BA74-2A96D6F73827}"/>
+    <hyperlink ref="E109" r:id="rId5" xr:uid="{C8D3E1D8-CE5C-5F44-9BFE-D1D75B4368DB}"/>
+    <hyperlink ref="E166" r:id="rId6" xr:uid="{C126AEDF-84D4-A342-B7E7-2AF973AB368A}"/>
+    <hyperlink ref="E152" r:id="rId7" xr:uid="{FD4EF930-0AD0-B24E-8CE6-2B17EC9314F3}"/>
+    <hyperlink ref="E60" r:id="rId8" xr:uid="{AF71480D-C80C-C846-8BE7-3CE73041B397}"/>
+    <hyperlink ref="E250" r:id="rId9" xr:uid="{257B025F-5FF3-BA4A-BB9C-F38BF0893842}"/>
+    <hyperlink ref="E191" r:id="rId10" xr:uid="{B0D9E81F-B847-D44F-8E87-79B715CE3B27}"/>
+    <hyperlink ref="E92" r:id="rId11" xr:uid="{3F59C000-BAAC-294F-88E7-82D4922FB165}"/>
+    <hyperlink ref="E150" r:id="rId12" xr:uid="{221ECCBC-A70D-534A-AD35-6E58E02A50B9}"/>
+    <hyperlink ref="E389" r:id="rId13" xr:uid="{3C934109-6B9E-0947-A9A9-7AC1526021A2}"/>
+    <hyperlink ref="E130" r:id="rId14" xr:uid="{5F720AF6-88F0-D943-BF68-2C62ADE4ECFD}"/>
+    <hyperlink ref="E319" r:id="rId15" xr:uid="{C9A37EF0-A11A-7E47-8506-D0E6D3B1E901}"/>
+    <hyperlink ref="E299" r:id="rId16" xr:uid="{FD9DDF11-FEE9-8F45-A722-2FA1CC671263}"/>
+    <hyperlink ref="E351" r:id="rId17" xr:uid="{E6A86FBE-F59B-1548-808B-A67450338118}"/>
+    <hyperlink ref="E277" r:id="rId18" xr:uid="{617334D6-BFE3-DB49-9A93-38EA8C69247E}"/>
+    <hyperlink ref="E106" r:id="rId19" xr:uid="{6A485EE1-F259-D646-A39F-D18CD66032E4}"/>
+    <hyperlink ref="E313" r:id="rId20" xr:uid="{AAAE655B-81B2-F241-B06E-75FFEBF82387}"/>
+    <hyperlink ref="E133" r:id="rId21" xr:uid="{CEE6949E-3D10-7947-8DDC-FBB8A12F218D}"/>
+    <hyperlink ref="E144" r:id="rId22" xr:uid="{699C7BD3-8D1E-594C-AEE8-B2DE8B40B4AF}"/>
+    <hyperlink ref="E281" r:id="rId23" xr:uid="{4353F609-5ED1-B94D-B9FD-CE5CD512C836}"/>
+    <hyperlink ref="E330" r:id="rId24" xr:uid="{8DEA5C31-3AC3-6844-8722-1717B771FF96}"/>
+    <hyperlink ref="E70" r:id="rId25" xr:uid="{D5AB54EA-F579-8A43-BFCB-9D1B462781A0}"/>
+    <hyperlink ref="E372" r:id="rId26" xr:uid="{29333AEC-8207-2447-A539-29DF4C9CB913}"/>
+    <hyperlink ref="E122" r:id="rId27" xr:uid="{B87E0126-BEEF-8A4F-A742-88818ECEACA7}"/>
+    <hyperlink ref="E264" r:id="rId28" xr:uid="{7E0F8F43-9738-5E41-B960-FD6BD06F7309}"/>
+    <hyperlink ref="E107" r:id="rId29" xr:uid="{F3394350-0E15-9248-95DE-E68882CC5374}"/>
+    <hyperlink ref="E195" r:id="rId30" xr:uid="{DC190C5F-96A6-3943-B513-2269934113B2}"/>
+    <hyperlink ref="E300" r:id="rId31" xr:uid="{02FA46C1-19A7-FE4C-928D-6A6805919025}"/>
+    <hyperlink ref="E355" r:id="rId32" xr:uid="{05DB1628-6517-A54D-80F8-39FF00BD332A}"/>
+    <hyperlink ref="E279" r:id="rId33" xr:uid="{19777D6E-A79C-D547-B09A-F79134ACBFC6}"/>
+    <hyperlink ref="E121" r:id="rId34" xr:uid="{BC1473E0-995C-8740-AE23-7C49A4E6D7C2}"/>
+    <hyperlink ref="E46" r:id="rId35" xr:uid="{EA27DF6D-1D14-474D-A544-8DB02104DAA0}"/>
+    <hyperlink ref="E339" r:id="rId36" xr:uid="{D9D40137-BA92-2940-AAC0-B9A418DC7AA3}"/>
+    <hyperlink ref="E12" r:id="rId37" xr:uid="{E6D11583-F96A-5347-A914-51A32ED6D03C}"/>
+    <hyperlink ref="E149" r:id="rId38" xr:uid="{EF9178B0-E0A2-9E4C-BDB8-B933B6B9B9F4}"/>
+    <hyperlink ref="E240" r:id="rId39" xr:uid="{241091A3-0678-BD4E-958B-D1F775BF70D7}"/>
+    <hyperlink ref="E136" r:id="rId40" xr:uid="{0468522D-FE8C-3D4D-BA05-E8889178B043}"/>
+    <hyperlink ref="E373" r:id="rId41" xr:uid="{F57A88BC-3C40-184B-96FF-01617E692CAB}"/>
+    <hyperlink ref="E49" r:id="rId42" xr:uid="{BE3CF84B-15AA-D043-9D51-6697EE1CC29B}"/>
+    <hyperlink ref="E190" r:id="rId43" xr:uid="{23ADF276-E325-DF49-A089-12A6BE1C671A}"/>
+    <hyperlink ref="E381" r:id="rId44" xr:uid="{75F79005-2C27-9F47-8865-16B84F974CDF}"/>
+    <hyperlink ref="E155" r:id="rId45" xr:uid="{44142E15-752B-9F4E-95CE-CB50845CAE36}"/>
+    <hyperlink ref="E409" r:id="rId46" xr:uid="{59637FF9-9509-8749-B934-CA7349788EE3}"/>
+    <hyperlink ref="E336" r:id="rId47" xr:uid="{8488CAAA-A680-4744-840C-B96E11D70042}"/>
+    <hyperlink ref="E342" r:id="rId48" xr:uid="{DAE8F70C-0B4D-9742-9B67-2C54BB10FAB2}"/>
+    <hyperlink ref="E99" r:id="rId49" xr:uid="{2A15121E-4798-744B-889D-83370ED3A322}"/>
+    <hyperlink ref="E117" r:id="rId50" xr:uid="{FBE4A3D5-42A2-2A40-BCA7-32A4CDCC46FF}"/>
+    <hyperlink ref="E103" r:id="rId51" xr:uid="{8AAAF511-C76E-F74A-AA51-4767153CBE3C}"/>
+    <hyperlink ref="E251" r:id="rId52" xr:uid="{6BFE4CF0-123B-C546-8C1F-3425C2D3915E}"/>
+    <hyperlink ref="E48" r:id="rId53" xr:uid="{A0ADBE4A-8003-E845-94DB-F6DAF558E54C}"/>
+    <hyperlink ref="E138" r:id="rId54" xr:uid="{8A2E7B72-24E9-E444-A7D6-1E593F3AD7C0}"/>
+    <hyperlink ref="E237" r:id="rId55" xr:uid="{121FB611-8F5C-A84A-82D9-825F305AA5C5}"/>
+    <hyperlink ref="E218" r:id="rId56" xr:uid="{349A695B-1692-3243-9CCC-7312739CACF9}"/>
+    <hyperlink ref="E13" r:id="rId57" xr:uid="{47241919-4547-B942-B1D6-BC2EB823F17D}"/>
+    <hyperlink ref="E176" r:id="rId58" xr:uid="{659E3C46-B6DE-F745-A893-9185E5F734EA}"/>
+    <hyperlink ref="E181" r:id="rId59" xr:uid="{EC66E259-EF19-C445-B45A-48961EAB368F}"/>
+    <hyperlink ref="E357" r:id="rId60" xr:uid="{71A67E02-0DA3-6043-857D-5DACBF8A78A3}"/>
+    <hyperlink ref="E163" r:id="rId61" xr:uid="{31E5E934-B906-6047-B7A8-0C2E77409B37}"/>
+    <hyperlink ref="E259" r:id="rId62" xr:uid="{B201F93E-AC06-674C-9C76-FEC5893B299D}"/>
+    <hyperlink ref="E371" r:id="rId63" xr:uid="{EE1BBB8A-CE3D-5F43-8E72-B28210F74AD1}"/>
+    <hyperlink ref="E380" r:id="rId64" xr:uid="{73FBD27D-B923-6342-BD6B-DD24039815C4}"/>
+    <hyperlink ref="E392" r:id="rId65" xr:uid="{AD91167B-4632-9542-AF94-0179809FC5BF}"/>
+    <hyperlink ref="E112" r:id="rId66" xr:uid="{0D62368B-8723-FF41-8AF6-A3A2BA821B59}"/>
+    <hyperlink ref="E90" r:id="rId67" xr:uid="{2F43473D-B53A-A64F-81AA-07AE64FE2EC6}"/>
+    <hyperlink ref="E4" r:id="rId68" xr:uid="{B7B1C291-093D-EE43-AFD2-8F2BDAA52A96}"/>
+    <hyperlink ref="E257" r:id="rId69" xr:uid="{8B1F66C3-EF94-6D49-9316-C34D8559EFD5}"/>
+    <hyperlink ref="E159" r:id="rId70" xr:uid="{341DE4DB-4983-A248-ABD3-581FF4DDA8AB}"/>
+    <hyperlink ref="E183" r:id="rId71" xr:uid="{09399288-ED87-444E-BB0D-FCE8163EE02E}"/>
+    <hyperlink ref="E212" r:id="rId72" xr:uid="{6AF0EB75-4BFD-C246-9FB4-118B255447E8}"/>
+    <hyperlink ref="E307" r:id="rId73" xr:uid="{3856020F-A6A0-1F41-AC68-7B63C1D63C32}"/>
+    <hyperlink ref="E55" r:id="rId74" xr:uid="{31DDD5F0-CC2B-754F-959D-B2D59CDF53FF}"/>
+    <hyperlink ref="E53" r:id="rId75" xr:uid="{31EFCEEE-7C3B-0447-99CD-33C28656C1CA}"/>
+    <hyperlink ref="E316" r:id="rId76" xr:uid="{C99FB237-F6CB-F24D-9CA4-E6E3FF041406}"/>
+    <hyperlink ref="E21" r:id="rId77" xr:uid="{46B0BC42-9233-7940-A184-D7470BB8E23D}"/>
+    <hyperlink ref="E24" r:id="rId78" xr:uid="{B4E901DB-7CC4-D248-B760-CC8E34C0616E}"/>
+    <hyperlink ref="E376" r:id="rId79" xr:uid="{FFEA03B5-EF88-0B47-838C-EF95627C323C}"/>
+    <hyperlink ref="E100" r:id="rId80" xr:uid="{152978AA-3E77-AF46-A65E-6E0BCD68301E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>